--- a/app/TonerLandExcel.xlsx
+++ b/app/TonerLandExcel.xlsx
@@ -145,17 +145,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H11"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="71.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
